--- a/NotesAppWireframe.xlsx
+++ b/NotesAppWireframe.xlsx
@@ -565,63 +565,63 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4238625" y="6638925"/>
+          <a:ext cx="7515225" cy="2914650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5610224" y="6743700"/>
-          <a:ext cx="5029201" cy="2914650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
     <xdr:ext cx="2172326" cy="417807"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -630,7 +630,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6610350" y="6791325"/>
+          <a:off x="6867525" y="6743700"/>
           <a:ext cx="2172326" cy="417807"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -839,12 +839,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3754489" cy="1626471"/>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5755806" cy="1626471"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="TextBox 15"/>
@@ -852,8 +852,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5724525" y="7362825"/>
-          <a:ext cx="3754489" cy="1626471"/>
+          <a:off x="4610100" y="7391400"/>
+          <a:ext cx="5755806" cy="1626471"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -886,7 +886,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t> : 1</a:t>
+            <a:t>         Title                  Descripton                                                             Status</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -894,12 +894,8 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>Title</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>  : Yeskha </a:t>
+            <a:t>1          Yeskha        Yeskha project condected by IIHT....                      Pending</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -908,7 +904,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>Description : Yeskha project condected by IIHT....</a:t>
+            <a:t>2           mintra        online shopping                                                          done</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -917,84 +913,13 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>Status  :Pending</a:t>
+            <a:t>3           study           learne new things for improve ur skills                  pending</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rounded Rectangle 16"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9648825" y="9163050"/>
-          <a:ext cx="771526" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Edit</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1800">
-            <a:solidFill>
-              <a:srgbClr val="00B050"/>
-            </a:solidFill>
-            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1168,16 +1093,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>323851</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1186,8 +1111,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5505451" y="11249025"/>
-          <a:ext cx="2743200" cy="1209675"/>
+          <a:off x="4933950" y="10925175"/>
+          <a:ext cx="5905500" cy="1819275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1214,7 +1139,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>                          </a:t>
+            <a:t>                                                                             </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400" baseline="0">
@@ -1225,29 +1150,87 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1400" baseline="0">
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1          Yeskha        Yeskha project condected by IIHT....                    Edit/delete</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2          mintra         online shopping..........                                             Edit/delete</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3          study           learne  new things                                                    Edit/delete</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>    =&gt; Note1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>    =&gt; Note2 </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>    =&gt; ect......</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+            <a:t>    </a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1545,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B43:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P58" sqref="P58"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
